--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2280,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2327,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2373,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2528,10 +2540,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2575,28 +2587,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2621,28 +2633,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2829,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2922,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3089,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3124,28 +3136,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3182,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3366,10 +3378,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3413,28 +3425,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3459,28 +3471,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3655,10 +3667,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3702,28 +3714,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3748,28 +3760,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3886,10 +3898,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3933,28 +3945,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3979,28 +3991,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4175,10 +4187,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4222,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4268,28 +4280,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4464,10 +4476,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4511,28 +4523,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4557,28 +4569,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4868,10 +4880,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4915,28 +4927,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4961,28 +4973,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5070,10 +5082,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5117,28 +5129,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5163,28 +5175,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5272,10 +5284,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5319,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5365,28 +5377,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5486,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5521,28 +5533,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5579,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5659,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5706,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5752,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5849,10 +5861,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5896,28 +5908,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5942,28 +5954,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6080,10 +6092,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6127,28 +6139,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6173,28 +6185,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6253,10 +6265,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6300,28 +6312,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6346,28 +6358,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6455,10 +6467,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6502,28 +6514,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6548,28 +6560,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6686,10 +6698,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6733,28 +6745,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6779,28 +6791,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6888,10 +6900,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6935,28 +6947,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6981,28 +6993,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7131,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7166,28 +7178,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7224,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7333,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7380,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7426,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7535,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
